--- a/web-programming.xlsx
+++ b/web-programming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuis-my.sharepoint.com/personal/253407_uis_no/Documents/uis/DAT310/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="11_AD4D1D646341095ACB70009A1DDA7C705BDEDD7A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7950E70D-399C-4264-8F63-876F40E3507F}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="11_AD4D1D646341095ACB70009A1DDA7C705BDEDD7A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB5B5423-0484-490F-9B85-04C888938B32}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44865" yWindow="-105" windowWidth="15615" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="170">
   <si>
     <t>&lt;tag&gt;…&lt;/tag&gt;</t>
   </si>
@@ -593,26 +593,141 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>static relative absulot</t>
-  </si>
-  <si>
     <t>display:flex</t>
   </si>
   <si>
-    <t>flexbox</t>
-  </si>
-  <si>
     <t>flex-wrap: wrap</t>
   </si>
   <si>
     <t>flex-grow:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flexbox  </t>
+  </si>
+  <si>
+    <t>display: none</t>
+  </si>
+  <si>
+    <t>visibility</t>
+  </si>
+  <si>
+    <t>visible  hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inline block-level element acts like an inline element
+ block inline element acts like a block element
+ inline-block block-level element flows like an inline element, but
+retains other features of a block-level element
+ none element is hidden from the page
+ (flex … later)</t>
+  </si>
+  <si>
+    <t>static relative absulot fixed</t>
+  </si>
+  <si>
+    <t>justify-content: center;</t>
+  </si>
+  <si>
+    <t>flex-end space-around space-between;</t>
+  </si>
+  <si>
+    <t>align-items</t>
+  </si>
+  <si>
+    <t>flex-start (default) at beginning, i.e. top
+- flex-end at end, i.e. bottom
+- center centered
+- stretch stretch items to fill container
+- baseline place items on common baseline</t>
+  </si>
+  <si>
+    <t>flex-wrap</t>
+  </si>
+  <si>
+    <t>nowrap  wrap</t>
+  </si>
+  <si>
+    <t>flex-direction</t>
+  </si>
+  <si>
+    <t>row (default) items arranged next to each other horizontally
+column items arranged below each other vertically
+(row-reverse) horizontally in reversed order
+(column-reverse) vertically in reversed order</t>
+  </si>
+  <si>
+    <t>https://fontawesome.com/v4/icons/</t>
+  </si>
+  <si>
+    <t>icons</t>
+  </si>
+  <si>
+    <t>&lt;input type="number" name="points" size="3" min="0" max="100" step="10" value="30"&gt;</t>
+  </si>
+  <si>
+    <t>Preference:
+&lt;input type="radio" name="pref" value="male" checked /&gt; Male
+&lt;input type="radio" name="pref" value="female" /&gt; Female</t>
+  </si>
+  <si>
+    <t>Quantity:
+&lt;input type="number" name="points" size="3" min="0" max="100" step="10" value="30"&gt;</t>
+  </si>
+  <si>
+    <t>male female   Radio button</t>
+  </si>
+  <si>
+    <t>velge verdi  Number input</t>
+  </si>
+  <si>
+    <t>Preference:
+&lt;input type="checkbox" name="pref1" value="male" /&gt; Male
+&lt;input type="checkbox" name="pref2" value="female" /&gt; Female</t>
+  </si>
+  <si>
+    <t>Checkbox</t>
+  </si>
+  <si>
+    <t>Textarea</t>
+  </si>
+  <si>
+    <t>What do you think?
+&lt;textarea name="comment" cols="40" rows="3"&gt;&lt;/textarea&gt;</t>
+  </si>
+  <si>
+    <t>Dropdown list</t>
+  </si>
+  <si>
+    <t>&lt;select name="age"&gt;
+&lt;option value="1"&gt;-18&lt;/option&gt;
+&lt;option value="2" selected&gt;18-35&lt;/option&gt;
+&lt;option value="3"&gt;35-50&lt;/option&gt;
+&lt;option value="4"&gt;50-&lt;/option&gt;
+&lt;/select&gt;</t>
+  </si>
+  <si>
+    <t>Multichoice select list</t>
+  </si>
+  <si>
+    <t>&lt;select name="age" multiple&gt;
+&lt;option value="1"&gt;-18&lt;/option&gt;
+&lt;option value="2" selected&gt;18-35&lt;/option&gt;
+&lt;option value="3"&gt;35-50&lt;/option&gt;
+&lt;option value="4" selected&gt;50-&lt;/option&gt;
+&lt;/select&gt;</t>
+  </si>
+  <si>
+    <t>Hidden form variables</t>
+  </si>
+  <si>
+    <t>&lt;input type="hidden" name="secret" value="nosecret" /&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,6 +771,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -674,10 +797,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -688,8 +812,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -703,6 +834,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -968,19 +1103,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.44140625" customWidth="1"/>
-    <col min="3" max="3" width="66.33203125" customWidth="1"/>
+    <col min="1" max="1" width="49.42578125" customWidth="1"/>
+    <col min="3" max="3" width="66.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -988,7 +1123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -996,7 +1131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1004,7 +1139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1012,7 +1147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1020,7 +1155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1028,7 +1163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,32 +1171,32 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="54.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1069,7 +1204,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1077,7 +1212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1085,7 +1220,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1093,7 +1228,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -1101,7 +1236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -1109,7 +1244,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1117,7 +1252,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1125,7 +1260,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -1133,7 +1268,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1141,7 +1276,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -1149,7 +1284,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -1157,7 +1292,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -1165,7 +1300,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1173,7 +1308,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -1181,7 +1316,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
@@ -1189,7 +1324,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
@@ -1197,7 +1332,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -1205,7 +1340,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
@@ -1213,7 +1348,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -1221,7 +1356,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>59</v>
       </c>
@@ -1229,7 +1364,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>65</v>
       </c>
@@ -1237,7 +1372,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>61</v>
       </c>
@@ -1245,7 +1380,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>63</v>
       </c>
@@ -1253,7 +1388,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>67</v>
       </c>
@@ -1261,7 +1396,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>69</v>
       </c>
@@ -1269,12 +1404,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>72</v>
       </c>
@@ -1282,7 +1417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>73</v>
       </c>
@@ -1290,12 +1425,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>76</v>
       </c>
@@ -1303,7 +1438,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>78</v>
       </c>
@@ -1311,22 +1446,22 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>83</v>
       </c>
@@ -1334,7 +1469,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>85</v>
       </c>
@@ -1342,7 +1477,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>86</v>
       </c>
@@ -1350,7 +1485,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>89</v>
       </c>
@@ -1358,7 +1493,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>91</v>
       </c>
@@ -1366,17 +1501,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>94</v>
       </c>
@@ -1384,7 +1519,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>96</v>
       </c>
@@ -1392,12 +1527,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>99</v>
       </c>
@@ -1405,7 +1540,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>100</v>
       </c>
@@ -1413,7 +1548,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>104</v>
       </c>
@@ -1421,7 +1556,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>106</v>
       </c>
@@ -1429,7 +1564,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>108</v>
       </c>
@@ -1437,7 +1572,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>110</v>
       </c>
@@ -1445,12 +1580,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>113</v>
       </c>
@@ -1458,7 +1593,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>115</v>
       </c>
@@ -1466,32 +1601,32 @@
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>122</v>
       </c>
@@ -1499,27 +1634,27 @@
         <v>123</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="360" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="375" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>128</v>
       </c>
@@ -1527,7 +1662,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>130</v>
       </c>
@@ -1535,7 +1670,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>132</v>
       </c>
@@ -1543,7 +1678,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>134</v>
       </c>
@@ -1551,28 +1686,148 @@
         <v>135</v>
       </c>
       <c r="C80" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="C81" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C81" t="s">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+    <row r="84" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="C84" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C85" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C86" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C88" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C90" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C92" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C93" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C94" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C95" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C96" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C97" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C98" t="s">
+        <v>168</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A90" r:id="rId1" xr:uid="{00CAE799-BC74-4C1F-AD62-79D56B32D2E3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/web-programming.xlsx
+++ b/web-programming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuis-my.sharepoint.com/personal/253407_uis_no/Documents/uis/DAT310/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="242" documentId="11_AD4D1D646341095ACB70009A1DDA7C705BDEDD7A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB5B5423-0484-490F-9B85-04C888938B32}"/>
+  <xr:revisionPtr revIDLastSave="246" documentId="11_AD4D1D646341095ACB70009A1DDA7C705BDEDD7A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D64D1EF-1C0C-4E32-8ADF-C925CE21F47D}"/>
   <bookViews>
-    <workbookView xWindow="44865" yWindow="-105" windowWidth="15615" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="25605" yWindow="255" windowWidth="15615" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="172">
   <si>
     <t>&lt;tag&gt;…&lt;/tag&gt;</t>
   </si>
@@ -721,6 +721,12 @@
   </si>
   <si>
     <t>&lt;input type="hidden" name="secret" value="nosecret" /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;input type="text" name="name" size="20" placeholder="Firstname, lastname" /&gt;</t>
+  </si>
+  <si>
+    <t>skrive first name , lastname in the box</t>
   </si>
 </sst>
 </file>
@@ -801,7 +807,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -813,9 +819,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1103,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1764,7 +1767,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="1" t="s">
         <v>155</v>
       </c>
     </row>
@@ -1822,6 +1825,14 @@
       </c>
       <c r="C98" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C99" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
